--- a/dist/document/dest/2020/10/products/Originko.xlsx
+++ b/dist/document/dest/2020/10/products/Originko.xlsx
@@ -1,48 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Index" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Index" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+  <si>
+    <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC ORIGINKO</t>
+  </si>
+  <si>
+    <t>01/09 -&gt; 30/09/2020</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Họ lót BS</t>
+  </si>
+  <si>
+    <t>Tên BS</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Lê Thị Thuý</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Vân</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>Phùng Trọng</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Lý Thanh</t>
+  </si>
+  <si>
+    <t>Lãm</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Huỳnh Thắng</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Bùi Quang</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>File này được sinh ra bởi Yến Phạm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="13">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;True&quot;;&quot;True&quot;;&quot;False&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;On&quot;;&quot;On&quot;;&quot;Off&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF7b7979"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe1dbdb"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,19 +157,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -387,220 +542,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Ngày</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Họ lót BS</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Tên BS</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Thuốc</v>
-      </c>
-      <c r="E1" t="str">
-        <v>SL</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Lê Thị Thuý</v>
-      </c>
-      <c r="C2" t="str">
-        <v>An</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Nguyễn Thị Hồng</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Anh</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Bùi Thị Vân</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Hương</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
         <v>2519</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Phùng Trọng</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Kiên</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10">
         <v>990</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Lý Thanh</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Lãm</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10">
         <v>330</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Nguyễn Đình</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Linh</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Huỳnh Thắng</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Toàn</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10">
         <v>222</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Trần Thị Hồng</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Vân</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E9" s="1">
+    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Bùi Quang</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Vinh</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E10" s="1">
+    <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Vũ</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
-      </c>
-      <c r="E11" s="1">
+    <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10">
         <v>1108</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="16" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11">
         <v>5894</v>
       </c>
     </row>
+    <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/dist/document/dest/2020/10/products/Originko.xlsx
+++ b/dist/document/dest/2020/10/products/Originko.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC ORIGINKO</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,16 +37,16 @@
     <t>SL</t>
   </si>
   <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
     <t>Lê Thị Thuý</t>
   </si>
   <si>
     <t>An</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hồng</t>
-  </si>
-  <si>
-    <t>Anh</t>
+    <t>23/10/2020</t>
   </si>
   <si>
     <t>Bùi Thị Vân</t>
@@ -61,28 +61,25 @@
     <t>Kiên</t>
   </si>
   <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
     <t>Lý Thanh</t>
   </si>
   <si>
     <t>Lãm</t>
   </si>
   <si>
-    <t>Nguyễn Đình</t>
-  </si>
-  <si>
-    <t>Linh</t>
-  </si>
-  <si>
-    <t>Huỳnh Thắng</t>
-  </si>
-  <si>
-    <t>Toàn</t>
-  </si>
-  <si>
-    <t>Trần Thị Hồng</t>
-  </si>
-  <si>
-    <t>Vân</t>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Huỳnh Lộc</t>
+  </si>
+  <si>
+    <t>Sơn</t>
   </si>
   <si>
     <t>Bùi Quang</t>
@@ -543,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -603,16 +600,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -620,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -637,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
@@ -646,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>2519</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="10">
-        <v>990</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -671,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10">
-        <v>330</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -688,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -705,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10">
-        <v>222</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,16 +719,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="10">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -739,16 +736,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" s="10">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -756,43 +753,162 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E22" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11">
-        <v>5894</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
